--- a/data_half_pulse_lengths.xlsx
+++ b/data_half_pulse_lengths.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
